--- a/バスタビット/バスタビット計算提案.xlsx
+++ b/バスタビット/バスタビット計算提案.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81902\OneDrive\ドキュメント\create\バスタビット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\三好衛\Documents\create\バスタビット\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>100bits</t>
     <phoneticPr fontId="1"/>
@@ -342,62 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次回設定掛け金の乗数 = 次回予想利益の絶対値 / 1000【小数点以下切り上げ】</t>
-    <rPh sb="0" eb="2">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨソウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>リエキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次回設定掛け金の乗数 = 600 / 1000 = 0.6(切り上げで1)</t>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次回掛け金 = 現在掛け金 + 初期掛け金 * 次回掛け金の乗数</t>
     <rPh sb="0" eb="2">
       <t>ジカイ</t>
@@ -511,6 +455,90 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回設定掛け金の乗数 = 次回予想利益の絶対値 / 900【小数点以下切り上げ】</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←（初期投資額 * 倍率 - 初期投資額）分、乗数が上がるごとに利益が上がるため</t>
+    <rPh sb="2" eb="7">
+      <t>ショキトウシガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="15" eb="20">
+      <t>ショキトウシガク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回設定掛け金の乗数 = 600 / 900 = 0.6(切り上げで1)</t>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +649,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F1" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -1043,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -1109,39 +1140,49 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="12:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="12:25" x14ac:dyDescent="0.15">
       <c r="M17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="12:25" x14ac:dyDescent="0.15">
       <c r="N18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="12:19" x14ac:dyDescent="0.15">
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="12:25" x14ac:dyDescent="0.15">
       <c r="N19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="12:19" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="12:25" x14ac:dyDescent="0.15">
       <c r="M21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="12:19" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="12:25" x14ac:dyDescent="0.15">
       <c r="N22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="12:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="12:25" x14ac:dyDescent="0.15">
       <c r="N23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="12:19" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="12:25" x14ac:dyDescent="0.15">
       <c r="L25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1151,12 +1192,15 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="12:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="12:25" x14ac:dyDescent="0.15">
       <c r="M26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V17:Y18"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
